--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.6788056666666668</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N2">
-        <v>2.036417</v>
+        <v>0.735175</v>
       </c>
       <c r="O2">
-        <v>0.5807293790604947</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P2">
-        <v>0.5807293790604947</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q2">
-        <v>35.12689175326845</v>
+        <v>11.87764871175556</v>
       </c>
       <c r="R2">
-        <v>316.142025779416</v>
+        <v>106.8988384058</v>
       </c>
       <c r="S2">
-        <v>0.08527619096414218</v>
+        <v>0.01873552547113159</v>
       </c>
       <c r="T2">
-        <v>0.0852761909641422</v>
+        <v>0.01873552547113159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H3">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J3">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.019209</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N3">
-        <v>0.057627</v>
+        <v>2.036417</v>
       </c>
       <c r="O3">
-        <v>0.01643361449404475</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P3">
-        <v>0.01643361449404475</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q3">
-        <v>0.9940289199440001</v>
+        <v>32.90080015866578</v>
       </c>
       <c r="R3">
-        <v>8.946260279496</v>
+        <v>296.107201427992</v>
       </c>
       <c r="S3">
-        <v>0.002413165406049262</v>
+        <v>0.05189695320616913</v>
       </c>
       <c r="T3">
-        <v>0.002413165406049263</v>
+        <v>0.05189695320616913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H4">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J4">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.47087</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N4">
-        <v>1.41261</v>
+        <v>1.130778</v>
       </c>
       <c r="O4">
-        <v>0.4028370064454604</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P4">
-        <v>0.4028370064454605</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q4">
-        <v>24.36661968525333</v>
+        <v>18.269097636592</v>
       </c>
       <c r="R4">
-        <v>219.29957716728</v>
+        <v>164.421878729328</v>
       </c>
       <c r="S4">
-        <v>0.05915389633746765</v>
+        <v>0.02881724762294044</v>
       </c>
       <c r="T4">
-        <v>0.05915389633746767</v>
+        <v>0.02881724762294044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.52529266666666</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H5">
-        <v>193.575878</v>
+        <v>145.405976</v>
       </c>
       <c r="I5">
-        <v>0.1831005782015253</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J5">
-        <v>0.1831005782015253</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6788056666666668</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N5">
-        <v>2.036417</v>
+        <v>1.212883</v>
       </c>
       <c r="O5">
-        <v>0.5807293790604947</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P5">
-        <v>0.5807293790604947</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q5">
-        <v>43.80013430545844</v>
+        <v>19.59560404320089</v>
       </c>
       <c r="R5">
-        <v>394.201208749126</v>
+        <v>176.360436388808</v>
       </c>
       <c r="S5">
-        <v>0.1063318850845893</v>
+        <v>0.0309096478253511</v>
       </c>
       <c r="T5">
-        <v>0.1063318850845894</v>
+        <v>0.0309096478253511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.52529266666666</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H6">
-        <v>193.575878</v>
+        <v>145.405976</v>
       </c>
       <c r="I6">
-        <v>0.1831005782015253</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J6">
-        <v>0.1831005782015253</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.019209</v>
+        <v>0.328092</v>
       </c>
       <c r="N6">
-        <v>0.057627</v>
+        <v>0.984276</v>
       </c>
       <c r="O6">
-        <v>0.01643361449404475</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="P6">
-        <v>0.01643361449404475</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="Q6">
-        <v>1.239466346834</v>
+        <v>15.902179159264</v>
       </c>
       <c r="R6">
-        <v>11.155197121506</v>
+        <v>143.119612433376</v>
       </c>
       <c r="S6">
-        <v>0.00300900431580056</v>
+        <v>0.02508372573689736</v>
       </c>
       <c r="T6">
-        <v>0.003009004315800561</v>
+        <v>0.02508372573689736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>193.575878</v>
       </c>
       <c r="I7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J7">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.47087</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N7">
-        <v>1.41261</v>
+        <v>0.735175</v>
       </c>
       <c r="O7">
-        <v>0.4028370064454604</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P7">
-        <v>0.4028370064454605</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q7">
-        <v>30.38302455795333</v>
+        <v>15.81246067873889</v>
       </c>
       <c r="R7">
-        <v>273.44722102158</v>
+        <v>142.31214610865</v>
       </c>
       <c r="S7">
-        <v>0.07375968880113537</v>
+        <v>0.0249422059026354</v>
       </c>
       <c r="T7">
-        <v>0.07375968880113541</v>
+        <v>0.0249422059026354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.0393243333333</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H8">
-        <v>306.117973</v>
+        <v>193.575878</v>
       </c>
       <c r="I8">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J8">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,27 +936,27 @@
         <v>2.036417</v>
       </c>
       <c r="O8">
-        <v>0.5807293790604947</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P8">
-        <v>0.5807293790604947</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q8">
-        <v>69.26487158030457</v>
+        <v>43.80013430545844</v>
       </c>
       <c r="R8">
-        <v>623.383844222741</v>
+        <v>394.201208749126</v>
       </c>
       <c r="S8">
-        <v>0.1681516388491516</v>
+        <v>0.06908930814789277</v>
       </c>
       <c r="T8">
-        <v>0.1681516388491516</v>
+        <v>0.06908930814789277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.0393243333333</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H9">
-        <v>306.117973</v>
+        <v>193.575878</v>
       </c>
       <c r="I9">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J9">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.019209</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N9">
-        <v>0.057627</v>
+        <v>1.130778</v>
       </c>
       <c r="O9">
-        <v>0.01643361449404475</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P9">
-        <v>0.01643361449404475</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q9">
-        <v>1.960073381119</v>
+        <v>24.32126046367599</v>
       </c>
       <c r="R9">
-        <v>17.640660430071</v>
+        <v>218.891344173084</v>
       </c>
       <c r="S9">
-        <v>0.004758394028315446</v>
+        <v>0.0383637878140174</v>
       </c>
       <c r="T9">
-        <v>0.004758394028315447</v>
+        <v>0.0383637878140174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.0393243333333</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H10">
-        <v>306.117973</v>
+        <v>193.575878</v>
       </c>
       <c r="I10">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J10">
-        <v>0.2895524919389952</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.47087</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N10">
-        <v>1.41261</v>
+        <v>1.212883</v>
       </c>
       <c r="O10">
-        <v>0.4028370064454604</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P10">
-        <v>0.4028370064454605</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q10">
-        <v>48.04725664883667</v>
+        <v>26.08721018180822</v>
       </c>
       <c r="R10">
-        <v>432.42530983953</v>
+        <v>234.784891636274</v>
       </c>
       <c r="S10">
-        <v>0.1166424590615281</v>
+        <v>0.04114935562526762</v>
       </c>
       <c r="T10">
-        <v>0.1166424590615282</v>
+        <v>0.04114935562526762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.64042033333334</v>
+        <v>64.52529266666666</v>
       </c>
       <c r="H11">
-        <v>148.921261</v>
+        <v>193.575878</v>
       </c>
       <c r="I11">
-        <v>0.1408624322272234</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J11">
-        <v>0.1408624322272234</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6788056666666668</v>
+        <v>0.328092</v>
       </c>
       <c r="N11">
-        <v>2.036417</v>
+        <v>0.984276</v>
       </c>
       <c r="O11">
-        <v>0.5807293790604947</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="P11">
-        <v>0.5807293790604947</v>
+        <v>0.1613691811285757</v>
       </c>
       <c r="Q11">
-        <v>33.6961986179819</v>
+        <v>21.170232321592</v>
       </c>
       <c r="R11">
-        <v>303.265787561837</v>
+        <v>190.532090894328</v>
       </c>
       <c r="S11">
-        <v>0.08180295280026646</v>
+        <v>0.03339342966915681</v>
       </c>
       <c r="T11">
-        <v>0.08180295280026648</v>
+        <v>0.03339342966915681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.64042033333334</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H12">
-        <v>148.921261</v>
+        <v>226.43711</v>
       </c>
       <c r="I12">
-        <v>0.1408624322272234</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J12">
-        <v>0.1408624322272234</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.019209</v>
+        <v>0.2450583333333334</v>
       </c>
       <c r="N12">
-        <v>0.057627</v>
+        <v>0.735175</v>
       </c>
       <c r="O12">
-        <v>0.01643361449404475</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="P12">
-        <v>0.01643361449404475</v>
+        <v>0.1205297982844249</v>
       </c>
       <c r="Q12">
-        <v>0.9535428341830001</v>
+        <v>18.49676692713889</v>
       </c>
       <c r="R12">
-        <v>8.581885507647</v>
+        <v>166.47090234425</v>
       </c>
       <c r="S12">
-        <v>0.002314878907915694</v>
+        <v>0.02917636784071671</v>
       </c>
       <c r="T12">
-        <v>0.002314878907915695</v>
+        <v>0.02917636784071671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.64042033333334</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H13">
-        <v>148.921261</v>
+        <v>226.43711</v>
       </c>
       <c r="I13">
-        <v>0.1408624322272234</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J13">
-        <v>0.1408624322272234</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.47087</v>
+        <v>0.6788056666666668</v>
       </c>
       <c r="N13">
-        <v>1.41261</v>
+        <v>2.036417</v>
       </c>
       <c r="O13">
-        <v>0.4028370064454604</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="P13">
-        <v>0.4028370064454605</v>
+        <v>0.3338646311870966</v>
       </c>
       <c r="Q13">
-        <v>23.37418472235667</v>
+        <v>51.23559780387446</v>
       </c>
       <c r="R13">
-        <v>210.36766250121</v>
+        <v>461.1203802348701</v>
       </c>
       <c r="S13">
-        <v>0.05674460051904123</v>
+        <v>0.0808178344871477</v>
       </c>
       <c r="T13">
-        <v>0.05674460051904124</v>
+        <v>0.0808178344871477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.450424</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H14">
-        <v>253.351272</v>
+        <v>226.43711</v>
       </c>
       <c r="I14">
-        <v>0.239641244924597</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J14">
-        <v>0.239641244924597</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.6788056666666668</v>
+        <v>0.3769259999999999</v>
       </c>
       <c r="N14">
-        <v>2.036417</v>
+        <v>1.130778</v>
       </c>
       <c r="O14">
-        <v>0.5807293790604947</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="P14">
-        <v>0.5807293790604947</v>
+        <v>0.1853877569891052</v>
       </c>
       <c r="Q14">
-        <v>57.32542636360267</v>
+        <v>28.45001137462</v>
       </c>
       <c r="R14">
-        <v>515.9288372724241</v>
+        <v>256.05010237158</v>
       </c>
       <c r="S14">
-        <v>0.1391667113623452</v>
+        <v>0.04487638300294482</v>
       </c>
       <c r="T14">
-        <v>0.1391667113623452</v>
+        <v>0.04487638300294482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,728 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.450424</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H15">
-        <v>253.351272</v>
+        <v>226.43711</v>
       </c>
       <c r="I15">
-        <v>0.239641244924597</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J15">
-        <v>0.239641244924597</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.019209</v>
+        <v>0.4042943333333333</v>
       </c>
       <c r="N15">
-        <v>0.057627</v>
+        <v>1.212883</v>
       </c>
       <c r="O15">
-        <v>0.01643361449404475</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="P15">
-        <v>0.01643361449404475</v>
+        <v>0.1988486324107976</v>
       </c>
       <c r="Q15">
-        <v>1.622208194616</v>
+        <v>30.51574680979222</v>
       </c>
       <c r="R15">
-        <v>14.599873751544</v>
+        <v>274.64172128813</v>
       </c>
       <c r="S15">
-        <v>0.003938171835963785</v>
+        <v>0.04813482579760194</v>
       </c>
       <c r="T15">
-        <v>0.003938171835963786</v>
+        <v>0.04813482579760194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>75.47903666666667</v>
+      </c>
+      <c r="H16">
+        <v>226.43711</v>
+      </c>
+      <c r="I16">
+        <v>0.2420676733554854</v>
+      </c>
+      <c r="J16">
+        <v>0.2420676733554854</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.328092</v>
+      </c>
+      <c r="N16">
+        <v>0.984276</v>
+      </c>
+      <c r="O16">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P16">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q16">
+        <v>24.76406809804</v>
+      </c>
+      <c r="R16">
+        <v>222.87661288236</v>
+      </c>
+      <c r="S16">
+        <v>0.03906226222707421</v>
+      </c>
+      <c r="T16">
+        <v>0.03906226222707421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>84.450424</v>
-      </c>
-      <c r="H16">
-        <v>253.351272</v>
-      </c>
-      <c r="I16">
-        <v>0.239641244924597</v>
-      </c>
-      <c r="J16">
-        <v>0.239641244924597</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.47087</v>
-      </c>
-      <c r="N16">
-        <v>1.41261</v>
-      </c>
-      <c r="O16">
-        <v>0.4028370064454604</v>
-      </c>
-      <c r="P16">
-        <v>0.4028370064454605</v>
-      </c>
-      <c r="Q16">
-        <v>39.76517114887999</v>
-      </c>
-      <c r="R16">
-        <v>357.88654033992</v>
-      </c>
-      <c r="S16">
-        <v>0.09653636172628806</v>
-      </c>
-      <c r="T16">
-        <v>0.09653636172628807</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>51.18999233333333</v>
+      </c>
+      <c r="H17">
+        <v>153.569977</v>
+      </c>
+      <c r="I17">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="J17">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2450583333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.735175</v>
+      </c>
+      <c r="O17">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="P17">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="Q17">
+        <v>12.54453420455278</v>
+      </c>
+      <c r="R17">
+        <v>112.900807840975</v>
+      </c>
+      <c r="S17">
+        <v>0.01978745506088823</v>
+      </c>
+      <c r="T17">
+        <v>0.01978745506088823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>51.18999233333333</v>
+      </c>
+      <c r="H18">
+        <v>153.569977</v>
+      </c>
+      <c r="I18">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="J18">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N18">
+        <v>2.036417</v>
+      </c>
+      <c r="O18">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="P18">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="Q18">
+        <v>34.74805687248989</v>
+      </c>
+      <c r="R18">
+        <v>312.732511852409</v>
+      </c>
+      <c r="S18">
+        <v>0.05481077277210029</v>
+      </c>
+      <c r="T18">
+        <v>0.05481077277210028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>51.18999233333333</v>
+      </c>
+      <c r="H19">
+        <v>153.569977</v>
+      </c>
+      <c r="I19">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="J19">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.3769259999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.130778</v>
+      </c>
+      <c r="O19">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="P19">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="Q19">
+        <v>19.294839050234</v>
+      </c>
+      <c r="R19">
+        <v>173.653551452106</v>
+      </c>
+      <c r="S19">
+        <v>0.03043522815498496</v>
+      </c>
+      <c r="T19">
+        <v>0.03043522815498495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>51.18999233333333</v>
+      </c>
+      <c r="H20">
+        <v>153.569977</v>
+      </c>
+      <c r="I20">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="J20">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4042943333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.212883</v>
+      </c>
+      <c r="O20">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="P20">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="Q20">
+        <v>20.69582382374344</v>
+      </c>
+      <c r="R20">
+        <v>186.262414413691</v>
+      </c>
+      <c r="S20">
+        <v>0.03264510879262121</v>
+      </c>
+      <c r="T20">
+        <v>0.0326451087926212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>51.18999233333333</v>
+      </c>
+      <c r="H21">
+        <v>153.569977</v>
+      </c>
+      <c r="I21">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="J21">
+        <v>0.164170647777855</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.328092</v>
+      </c>
+      <c r="N21">
+        <v>0.984276</v>
+      </c>
+      <c r="O21">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P21">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q21">
+        <v>16.795026964628</v>
+      </c>
+      <c r="R21">
+        <v>151.155242681652</v>
+      </c>
+      <c r="S21">
+        <v>0.02649208299726027</v>
+      </c>
+      <c r="T21">
+        <v>0.02649208299726027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>72.14667033333333</v>
+      </c>
+      <c r="H22">
+        <v>216.440011</v>
+      </c>
+      <c r="I22">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="J22">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2450583333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.735175</v>
+      </c>
+      <c r="O22">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="P22">
+        <v>0.1205297982844249</v>
+      </c>
+      <c r="Q22">
+        <v>17.68014278743611</v>
+      </c>
+      <c r="R22">
+        <v>159.121285086925</v>
+      </c>
+      <c r="S22">
+        <v>0.02788824400905298</v>
+      </c>
+      <c r="T22">
+        <v>0.02788824400905298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>72.14667033333333</v>
+      </c>
+      <c r="H23">
+        <v>216.440011</v>
+      </c>
+      <c r="I23">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="J23">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.6788056666666668</v>
+      </c>
+      <c r="N23">
+        <v>2.036417</v>
+      </c>
+      <c r="O23">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="P23">
+        <v>0.3338646311870966</v>
+      </c>
+      <c r="Q23">
+        <v>48.97356865339856</v>
+      </c>
+      <c r="R23">
+        <v>440.762117880587</v>
+      </c>
+      <c r="S23">
+        <v>0.07724976257378673</v>
+      </c>
+      <c r="T23">
+        <v>0.07724976257378671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>72.14667033333333</v>
+      </c>
+      <c r="H24">
+        <v>216.440011</v>
+      </c>
+      <c r="I24">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="J24">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.3769259999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.130778</v>
+      </c>
+      <c r="O24">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="P24">
+        <v>0.1853877569891052</v>
+      </c>
+      <c r="Q24">
+        <v>27.19395586206199</v>
+      </c>
+      <c r="R24">
+        <v>244.745602758558</v>
+      </c>
+      <c r="S24">
+        <v>0.04289511039421758</v>
+      </c>
+      <c r="T24">
+        <v>0.04289511039421757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>72.14667033333333</v>
+      </c>
+      <c r="H25">
+        <v>216.440011</v>
+      </c>
+      <c r="I25">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="J25">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4042943333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.212883</v>
+      </c>
+      <c r="O25">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="P25">
+        <v>0.1988486324107976</v>
+      </c>
+      <c r="Q25">
+        <v>29.16848998463477</v>
+      </c>
+      <c r="R25">
+        <v>262.516409861713</v>
+      </c>
+      <c r="S25">
+        <v>0.04600969436995573</v>
+      </c>
+      <c r="T25">
+        <v>0.04600969436995573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>72.14667033333333</v>
+      </c>
+      <c r="H26">
+        <v>216.440011</v>
+      </c>
+      <c r="I26">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="J26">
+        <v>0.2313804918452</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.328092</v>
+      </c>
+      <c r="N26">
+        <v>0.984276</v>
+      </c>
+      <c r="O26">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="P26">
+        <v>0.1613691811285757</v>
+      </c>
+      <c r="Q26">
+        <v>23.670745363004</v>
+      </c>
+      <c r="R26">
+        <v>213.036708267036</v>
+      </c>
+      <c r="S26">
+        <v>0.037337680498187</v>
+      </c>
+      <c r="T26">
+        <v>0.037337680498187</v>
       </c>
     </row>
   </sheetData>
